--- a/data/spuibeheer/extern/verwerkt_in_excel/os_VA_2025.xlsx
+++ b/data/spuibeheer/extern/verwerkt_in_excel/os_VA_2025.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mijn Drive\Github\aangepast-spuibeheer\data\spuibeheer\extern\ruw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mijn Drive\Github\aangepast-spuibeheer\data\spuibeheer\extern\verwerkt_in_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="VA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="27">
   <si>
     <t>Waterpeil aanpassingen Veurne - Ambacht</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>nieuwe update</t>
-  </si>
-  <si>
-    <t>13u45</t>
   </si>
   <si>
     <t>1 x 0,50m</t>
@@ -831,7 +828,7 @@
   <dimension ref="A1:L318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14"/>
@@ -847,7 +844,7 @@
     <col min="9" max="16384" width="9.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.4">
+    <row r="1" spans="1:8" ht="23.5">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -883,7 +880,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="14.4">
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -905,7 +902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4">
+    <row r="5" spans="1:8">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
@@ -927,7 +924,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" ht="14.4">
+    <row r="7" spans="1:8">
       <c r="A7" s="21">
         <v>45717</v>
       </c>
@@ -953,7 +950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.4">
+    <row r="8" spans="1:8">
       <c r="A8" s="21"/>
       <c r="B8" s="22">
         <v>0.19791666666666666</v>
@@ -977,7 +974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.4">
+    <row r="9" spans="1:8">
       <c r="A9" s="21"/>
       <c r="B9" s="22">
         <v>0.33333333333333331</v>
@@ -995,7 +992,7 @@
       <c r="G9" s="26"/>
       <c r="H9" s="28"/>
     </row>
-    <row r="10" spans="1:8" ht="14.4">
+    <row r="10" spans="1:8">
       <c r="A10" s="21"/>
       <c r="B10" s="22">
         <v>0.4826388888888889</v>
@@ -1017,7 +1014,7 @@
       </c>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" ht="14.4">
+    <row r="11" spans="1:8">
       <c r="A11" s="21"/>
       <c r="B11" s="22">
         <v>0.53819444444444442</v>
@@ -1041,7 +1038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.4">
+    <row r="12" spans="1:8">
       <c r="A12" s="21"/>
       <c r="B12" s="22">
         <v>0.71527777777777779</v>
@@ -1065,7 +1062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.4">
+    <row r="13" spans="1:8">
       <c r="A13" s="21"/>
       <c r="B13" s="22">
         <v>0.79166666666666663</v>
@@ -1083,7 +1080,7 @@
       <c r="G13" s="26"/>
       <c r="H13" s="28"/>
     </row>
-    <row r="14" spans="1:8" ht="14.4">
+    <row r="14" spans="1:8">
       <c r="A14" s="21"/>
       <c r="B14" s="22">
         <v>0.97916666666666663</v>
@@ -1105,7 +1102,7 @@
       </c>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="14.4">
+    <row r="15" spans="1:8">
       <c r="A15" s="21">
         <v>45718</v>
       </c>
@@ -1131,7 +1128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.4">
+    <row r="16" spans="1:8">
       <c r="A16" s="21"/>
       <c r="B16" s="22">
         <v>0.2013888888888889</v>
@@ -1155,7 +1152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14.4">
+    <row r="17" spans="1:12">
       <c r="A17" s="21"/>
       <c r="B17" s="22">
         <v>0.22569444444444445</v>
@@ -1177,7 +1174,7 @@
       </c>
       <c r="H17" s="28"/>
     </row>
-    <row r="18" spans="1:12" ht="14.4">
+    <row r="18" spans="1:12">
       <c r="A18" s="21"/>
       <c r="B18" s="22">
         <v>0.33333333333333331</v>
@@ -1195,7 +1192,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:12" ht="14.4">
+    <row r="19" spans="1:12">
       <c r="A19" s="21"/>
       <c r="B19" s="22">
         <v>0.51041666666666663</v>
@@ -1217,7 +1214,7 @@
       </c>
       <c r="H19" s="28"/>
     </row>
-    <row r="20" spans="1:12" ht="14.4">
+    <row r="20" spans="1:12">
       <c r="A20" s="21"/>
       <c r="B20" s="22">
         <v>0.56597222222222221</v>
@@ -1241,7 +1238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.4">
+    <row r="21" spans="1:12">
       <c r="A21" s="21"/>
       <c r="B21" s="22">
         <v>0.74305555555555558</v>
@@ -1265,7 +1262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="14.4">
+    <row r="22" spans="1:12">
       <c r="A22" s="21"/>
       <c r="B22" s="22">
         <v>0.79166666666666663</v>
@@ -1284,7 +1281,9 @@
       <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="21"/>
+      <c r="A23" s="21">
+        <v>45719</v>
+      </c>
       <c r="B23" s="22">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -1306,9 +1305,6 @@
       <c r="H23" s="28"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="21">
-        <v>45719</v>
-      </c>
       <c r="B24" s="22">
         <v>7.6388888888888895E-2</v>
       </c>
@@ -2639,8 +2635,8 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="21"/>
-      <c r="B84" s="22" t="s">
-        <v>19</v>
+      <c r="B84" s="22">
+        <v>0.57291666666666663</v>
       </c>
       <c r="C84" s="23">
         <v>2.94</v>
@@ -2655,7 +2651,7 @@
         <v>10</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H84" s="28" t="s">
         <v>14</v>
@@ -2815,7 +2811,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H91" s="28" t="s">
         <v>14</v>
@@ -2905,7 +2901,7 @@
         <v>10</v>
       </c>
       <c r="G95" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H95" s="28" t="s">
         <v>14</v>
@@ -3083,7 +3079,7 @@
         <v>10</v>
       </c>
       <c r="G103" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H103" s="28" t="s">
         <v>14</v>
@@ -3149,7 +3145,7 @@
         <v>10</v>
       </c>
       <c r="G106" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H106" s="28" t="s">
         <v>14</v>
@@ -3221,7 +3217,7 @@
         <v>10</v>
       </c>
       <c r="G109" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H109" s="36" t="s">
         <v>14</v>
@@ -3375,7 +3371,7 @@
         <v>10</v>
       </c>
       <c r="G116" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H116" s="28" t="s">
         <v>14</v>
@@ -3441,7 +3437,7 @@
         <v>10</v>
       </c>
       <c r="G119" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H119" s="28" t="s">
         <v>14</v>
@@ -3465,7 +3461,7 @@
         <v>10</v>
       </c>
       <c r="G120" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H120" s="28"/>
     </row>
@@ -3535,7 +3531,7 @@
         <v>10</v>
       </c>
       <c r="G123" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H123" s="28" t="s">
         <v>14</v>
@@ -3623,7 +3619,7 @@
         <v>10</v>
       </c>
       <c r="G127" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H127" s="28" t="s">
         <v>14</v>
@@ -3805,7 +3801,7 @@
         <v>10</v>
       </c>
       <c r="G135" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H135" s="28" t="s">
         <v>14</v>
@@ -3895,7 +3891,7 @@
         <v>10</v>
       </c>
       <c r="G139" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H139" s="28" t="s">
         <v>14</v>
@@ -3983,7 +3979,7 @@
         <v>10</v>
       </c>
       <c r="G143" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H143" s="28" t="s">
         <v>14</v>
@@ -4055,7 +4051,7 @@
         <v>10</v>
       </c>
       <c r="G146" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H146" s="28" t="s">
         <v>14</v>
@@ -4142,7 +4138,7 @@
         <v>10</v>
       </c>
       <c r="G150" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H150" s="28" t="s">
         <v>14</v>
@@ -4232,7 +4228,7 @@
         <v>10</v>
       </c>
       <c r="G154" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H154" s="28" t="s">
         <v>14</v>
@@ -4296,7 +4292,7 @@
         <v>10</v>
       </c>
       <c r="G157" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H157" s="28" t="s">
         <v>12</v>
@@ -4338,7 +4334,7 @@
         <v>10</v>
       </c>
       <c r="G159" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H159" s="28" t="s">
         <v>14</v>
@@ -4410,7 +4406,7 @@
         <v>10</v>
       </c>
       <c r="G162" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H162" s="28" t="s">
         <v>14</v>
@@ -4455,7 +4451,7 @@
         <v>15</v>
       </c>
       <c r="H164" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165" spans="1:8">
